--- a/non_stationary_envs/result.xlsx
+++ b/non_stationary_envs/result.xlsx
@@ -55,22 +55,22 @@
     <t>central</t>
   </si>
   <si>
-    <t>181.00+-132.19</t>
-  </si>
-  <si>
-    <t>221.07+-126.20</t>
-  </si>
-  <si>
-    <t>182.36+-131.18</t>
-  </si>
-  <si>
-    <t>230.36+-125.58</t>
-  </si>
-  <si>
-    <t>223.43+-116.38</t>
-  </si>
-  <si>
-    <t>207.64+-21.42</t>
+    <t>179.01+-130.95</t>
+  </si>
+  <si>
+    <t>100.71+-127.18</t>
+  </si>
+  <si>
+    <t>281.96+-91.89</t>
+  </si>
+  <si>
+    <t>294.58+-73.59</t>
+  </si>
+  <si>
+    <t>179.07+-134.02</t>
+  </si>
+  <si>
+    <t>207.07+-72.32</t>
   </si>
 </sst>
 </file>
